--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidBaxter(TFG)\projects\footie\FootieTake2\resources\Forms\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5FCD91-7FB2-467A-972B-A3455EC815F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F7FA3-E20C-F040-A0BF-9F11CC633586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2040" windowWidth="26820" windowHeight="14715" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
+    <workbookView xWindow="860" yWindow="2040" windowWidth="26820" windowHeight="14720" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,27 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,327 +526,309 @@
   <dimension ref="A3:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="str" cm="1">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(B4&gt;B5,A4,B4&lt;B5,A5,B4=B5,"")</f>
         <v/>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="str" cm="1">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(B9&gt;B10,A9,B9&lt;B10,A10,B9=B10,"")</f>
         <v/>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3" t="str" cm="1">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="str" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(E6&gt;E7,D6,E6&lt;E7,D7,E6=E7,"")</f>
         <v/>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="3" t="str" cm="1">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="str" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(E16&gt;E17,D16,E16&lt;E17,D17,E16=E17,"")</f>
         <v/>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="str" cm="1">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="str" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(B14&gt;B15,A14,B14&lt;B15,A15,B14=B15,"")</f>
         <v/>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="str" cm="1">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(B19&gt;B20,A19,B19&lt;B20,A20,B19=B20,"")</f>
         <v/>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="J19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="3" t="str" cm="1">
+      <c r="B20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
       </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="J21" s="3" t="str" cm="1">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="str" cm="1">
         <f t="array" ref="J21">_xlfn.IFS(H31&gt;H32,G31,H31&lt;H32,G32,H31=H32,"")</f>
         <v/>
       </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="str" cm="1">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="str" cm="1">
         <f t="array" ref="D26">_xlfn.IFS(B24&gt;B25,A24,B24&lt;B25,A25,B24=B25,"")</f>
         <v/>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="str" cm="1">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="str" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(B29&gt;B30,A29,B29&lt;B30,A30,B29=B30,"")</f>
         <v/>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="G30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G31" s="3" t="str" cm="1">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="str" cm="1">
         <f t="array" ref="G31">_xlfn.IFS(E26&gt;E27,D26,E26&lt;E27,D27,E26=E27,"")</f>
         <v/>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G32" s="3" t="str" cm="1">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="str" cm="1">
         <f t="array" ref="G32">_xlfn.IFS(E36&gt;E37,D36,E36&lt;E37,D37,E36=E37,"")</f>
         <v/>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="3"/>
+      <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="str" cm="1">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="str" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(B34&gt;B35,A34,B34&lt;B35,A35,B34=B35,"")</f>
         <v/>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="D37" s="3" t="str" cm="1">
+      <c r="B37" s="4"/>
+      <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XtJ3gfpheb2jcsOKaeHJHRi+zTTh84jCLRRory4tMVlr7LHL9Wlvc67ijyxMgh5DCBHdm8iv6Ay1lEfzW4hZ1g==" saltValue="ZK21QFznLuBYF6828vwAMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">

--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F7FA3-E20C-F040-A0BF-9F11CC633586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C06518-655F-944E-917B-9D5D309C21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2040" windowWidth="26820" windowHeight="14720" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
+    <workbookView xWindow="860" yWindow="2040" windowWidth="29840" windowHeight="18080" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>Saturday 3rd Dec</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>Monday 5th Dec</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Team 3</t>
   </si>
   <si>
-    <t>Team 4</t>
-  </si>
-  <si>
     <t>Team 5</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Team 8</t>
   </si>
   <si>
-    <t>Team 9</t>
-  </si>
-  <si>
     <t>Team 10</t>
   </si>
   <si>
@@ -133,6 +121,18 @@
   </si>
   <si>
     <t>Team 16</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CAAEA6-EFDA-4A96-BF49-5E6C89BC5CC4}">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="str" cm="1">
@@ -579,26 +579,26 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="str" cm="1">
@@ -615,26 +615,26 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="str" cm="1">
@@ -651,28 +651,28 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="J19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
@@ -687,26 +687,26 @@
       <c r="K21" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="str" cm="1">
@@ -723,26 +723,26 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="G30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="str" cm="1">
@@ -759,26 +759,26 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="str" cm="1">
@@ -788,10 +788,10 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
@@ -800,35 +800,35 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XtJ3gfpheb2jcsOKaeHJHRi+zTTh84jCLRRory4tMVlr7LHL9Wlvc67ijyxMgh5DCBHdm8iv6Ay1lEfzW4hZ1g==" saltValue="ZK21QFznLuBYF6828vwAMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qfr+1tf7JGaGsVTC1UtU4Z00Jx3S2LxD9DFcnKYYddU5YbgtahgJvOxETR+UG1QeM2mBAYSXnyl5VNJ3zBKH/Q==" saltValue="+lcSV3UxaDkFESuhdZ4P5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">

--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C06518-655F-944E-917B-9D5D309C21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235F7C3-5F28-B145-A374-9286DCE87526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2040" windowWidth="29840" windowHeight="18080" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
+    <workbookView xWindow="860" yWindow="2000" windowWidth="29840" windowHeight="18080" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Sun 18th</t>
   </si>
   <si>
-    <t>Team 3</t>
-  </si>
-  <si>
     <t>Team 5</t>
   </si>
   <si>
@@ -102,15 +99,6 @@
     <t>Team 8</t>
   </si>
   <si>
-    <t>Team 10</t>
-  </si>
-  <si>
-    <t>Team 11</t>
-  </si>
-  <si>
-    <t>Team 12</t>
-  </si>
-  <si>
     <t>Team 13</t>
   </si>
   <si>
@@ -133,6 +121,18 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Senegal</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CAAEA6-EFDA-4A96-BF49-5E6C89BC5CC4}">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="str" cm="1">
@@ -579,26 +579,26 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="str" cm="1">
@@ -615,26 +615,26 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="str" cm="1">
@@ -651,28 +651,28 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
@@ -687,26 +687,26 @@
       <c r="K21" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="str" cm="1">
@@ -723,26 +723,26 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="str" cm="1">
@@ -759,26 +759,26 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="str" cm="1">
@@ -788,10 +788,10 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4"/>
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
@@ -800,35 +800,35 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qfr+1tf7JGaGsVTC1UtU4Z00Jx3S2LxD9DFcnKYYddU5YbgtahgJvOxETR+UG1QeM2mBAYSXnyl5VNJ3zBKH/Q==" saltValue="+lcSV3UxaDkFESuhdZ4P5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JRyEvNhS6PhNKxUqjSIop9t3hwMaSIkYIkJB9XLvcHLeGmgc2Fr1BivOmvUvU/BvQ1Cm+fRDyQiJ5SYBowI8rA==" saltValue="EruO2tVrc/ak34fVn6p5xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">

--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235F7C3-5F28-B145-A374-9286DCE87526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345E2EF-7A56-BC42-9400-919B736A424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2000" windowWidth="29840" windowHeight="18080" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="15980" windowHeight="16260" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,24 +87,12 @@
     <t>Sun 18th</t>
   </si>
   <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Team 6</t>
-  </si>
-  <si>
     <t>Team 7</t>
   </si>
   <si>
     <t>Team 8</t>
   </si>
   <si>
-    <t>Team 13</t>
-  </si>
-  <si>
-    <t>Team 14</t>
-  </si>
-  <si>
     <t>Team 15</t>
   </si>
   <si>
@@ -133,6 +121,18 @@
   </si>
   <si>
     <t>Senegal</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CAAEA6-EFDA-4A96-BF49-5E6C89BC5CC4}">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="str" cm="1">
@@ -579,26 +579,26 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="str" cm="1">
@@ -615,26 +615,26 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="str" cm="1">
@@ -651,28 +651,28 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
@@ -687,26 +687,26 @@
       <c r="K21" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="str" cm="1">
@@ -723,26 +723,26 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="str" cm="1">
@@ -759,26 +759,26 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="str" cm="1">
@@ -788,10 +788,10 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
@@ -800,35 +800,34 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JRyEvNhS6PhNKxUqjSIop9t3hwMaSIkYIkJB9XLvcHLeGmgc2Fr1BivOmvUvU/BvQ1Cm+fRDyQiJ5SYBowI8rA==" saltValue="EruO2tVrc/ak34fVn6p5xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">

--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345E2EF-7A56-BC42-9400-919B736A424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A72540-EEAD-4E4F-9938-544BA2A366F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="15980" windowHeight="16260" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="15980" windowHeight="16180" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,6 @@
     <t>Team 7</t>
   </si>
   <si>
-    <t>Team 8</t>
-  </si>
-  <si>
-    <t>Team 15</t>
-  </si>
-  <si>
     <t>Team 16</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>Spain</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CAAEA6-EFDA-4A96-BF49-5E6C89BC5CC4}">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="str" cm="1">
@@ -579,26 +579,26 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="str" cm="1">
@@ -615,26 +615,26 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="str" cm="1">
@@ -651,28 +651,28 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
@@ -687,26 +687,26 @@
       <c r="K21" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="str" cm="1">
@@ -723,26 +723,26 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="str" cm="1">
@@ -759,26 +759,26 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="str" cm="1">
@@ -788,10 +788,10 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4"/>
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
@@ -800,34 +800,34 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">

--- a/resources/Forms/Excel/Knockout.xlsx
+++ b/resources/Forms/Excel/Knockout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A72540-EEAD-4E4F-9938-544BA2A366F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DAD31-A290-C64B-BCA3-AC8660C4BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="15980" windowHeight="16180" xr2:uid="{36927E69-5229-4F09-9EBA-BCAF8ACA44CC}"/>
   </bookViews>
@@ -87,12 +87,6 @@
     <t>Sun 18th</t>
   </si>
   <si>
-    <t>Team 7</t>
-  </si>
-  <si>
-    <t>Team 16</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>Portugal</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +526,7 @@
   <dimension ref="A3:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="str" cm="1">
@@ -579,26 +579,26 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="str" cm="1">
@@ -615,26 +615,26 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="str" cm="1">
@@ -651,28 +651,28 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(H11&gt;H12,G11,H11&lt;H12,G12,H11=H12,"")</f>
         <v/>
@@ -687,26 +687,26 @@
       <c r="K21" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="str" cm="1">
@@ -723,26 +723,26 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="str" cm="1">
@@ -759,26 +759,26 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="str" cm="1">
@@ -788,10 +788,10 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(B38&gt;B39,A38,B38&lt;B39,A39,B38=B39,"")</f>
         <v/>
@@ -800,34 +800,35 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4H9kLvteX4Vof3hx7pDeU85Gu/NWh7WfMlSKfUPiK7W4tf2ZAL9ram5xUxsWiKo5TC6sF8HTem0UmgQZKpr+5Q==" saltValue="o5XSK/tjIC8hwnM5J4JrBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B9:B10 B14:B15 B19:B20 B24:B25 B29:B30 B34:B35 B38:B39 E6:E7 E16:E17 E26:E27 E36:E37 H11:H12 H21:H22 H31:H32 K20:K21" xr:uid="{2F10E1AE-DBFA-4B28-ABF9-263DFDCE3FA2}">
